--- a/ProjectDX12/やす/やすステージ仕様.xlsx
+++ b/ProjectDX12/やす/やすステージ仕様.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\com\Desktop\そざい～ﾇ\やす\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\com\source\repos\DirectX12Souko\ProjectDX12\やす\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DC030A-F3DE-4827-BB24-60FE78607C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906BE8F5-DDFD-4942-B0CF-1E5C094A2188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
   <si>
     <t>倉庫Barn!!</t>
     <rPh sb="0" eb="2">
@@ -231,6 +233,417 @@
     <rPh sb="15" eb="17">
       <t>ハイチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Stage</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> クラス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 9×9のグリッド情報を保持し、移動の可否を判定する。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Player</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Block</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> クラス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Entity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を継承し、具体的な動き（押す・引く）を実装</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Entity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> クラス（基底）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 座標を持ち、盤上に存在するものの共通クラス。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GameManager</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> クラス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 爆発判定、演出の呼び出し、リセット処理を統括。</t>
+    </r>
+  </si>
+  <si>
+    <t>public:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Vector2 pos;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    virtual ~Entity() {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void move(Vector2 delta) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        pos.x += delta.x;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        pos.y += delta.y;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>class Block : public Entity {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // ブロック特有の属性があればここに追加</t>
+  </si>
+  <si>
+    <t>enum class CellType {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Empty,      // 何もない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Wall,       // 壁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Explosion,  // 爆発床</t>
+  </si>
+  <si>
+    <t>struct Vector2 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int x, y;</t>
+  </si>
+  <si>
+    <t>列挙型と構造体</t>
+  </si>
+  <si>
+    <t>Entity クラス（プレイヤー・ブロックの親）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stage クラス</t>
+  </si>
+  <si>
+    <t>class Stage {</t>
+  </si>
+  <si>
+    <t>private:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CellType grid[9][9];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    std::vector&lt;Block&gt; blocks;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // 指定した座標にあるセルの種類を返す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CellType getCellType(Vector2 p) const;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // 指定した座標にブロックがあるか確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Block* getBlockAt(Vector2 p);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // ブロックを移動させ、爆発床ならtrueを返す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bool moveBlock(Block&amp; block, Vector2 direction) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Vector2 nextPos = {block.pos.x + direction.x, block.pos.y + direction.y};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 壁チェック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (getCellType(nextPos) == CellType::Wall) return false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 1メートル（1マス）移動</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        block.move(direction);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 爆発判定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (getCellType(nextPos) == CellType::Explosion) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return true; // 爆発発生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return false;</t>
+  </si>
+  <si>
+    <t>ゲームのメインロジック（GameManager）</t>
+  </si>
+  <si>
+    <t>class GameManager {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Stage currentStage;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Player player;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void onInput(Vector2 dir, bool isPush) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 1. 移動先の座標を計算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 2. そこにブロックがあるか確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 3. 押す(isPush) or 引く のロジックを実行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 4. stage.moveBlock() を呼び出し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 5. 戻り値がtrueなら gameOver() を実行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void gameOver() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 演出再生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        playExplosionEffect();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // リセット</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        resetStage();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    void resetStage() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 全てのブロックとプレイヤーを初期位置へ</t>
+  </si>
+  <si>
+    <r>
+      <t>自動スライドの表現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 「1回押すと1メートル移動し、マスに納まったら止まる」という仕様は、内部データ（座標）を整数 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> で管理し、描画側（Update関数など）で現在の座標から目標の座標まで線形補間（Lerp）させてアニメーションさせるとスムーズに見えます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>「引く」動作の追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 通常の倉庫番は「押す」だけですが、今回は「引く」も含まれます。プレイヤーが移動したとき、移動前の位置にブロックがあった場合、そのブロックをプレイヤーと同じ方向へ移動させるロジックが必要です。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>爆発床の判定タイミング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: ブロックが移動して、座標が更新された瞬間に </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Stage::getCellType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> で判定を行います。</t>
+    </r>
+  </si>
+  <si>
+    <t>class Entity {</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -238,7 +651,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +699,19 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -353,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -377,6 +803,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -659,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="18.75"/>
@@ -1191,4 +1618,425 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CB325F-5629-45F0-99F7-61A701F3E4BC}">
+  <dimension ref="B3:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B0A397-5EC8-4826-BAB9-92A1B2E28802}">
+  <dimension ref="B2:E93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ProjectDX12/やす/やすステージ仕様.xlsx
+++ b/ProjectDX12/やす/やすステージ仕様.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\com\source\repos\DirectX12Souko\ProjectDX12\やす\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906BE8F5-DDFD-4942-B0CF-1E5C094A2188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5740AF5A-39CA-4585-B697-CC2D2DBB24F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="3195" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>倉庫Barn!!</t>
     <rPh sb="0" eb="2">
@@ -236,414 +235,93 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>Stage</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> クラス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 9×9のグリッド情報を保持し、移動の可否を判定する。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Player</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Block</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> クラス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Entity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> を継承し、具体的な動き（押す・引く）を実装</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Entity</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> クラス（基底）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 座標を持ち、盤上に存在するものの共通クラス。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GameManager</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> クラス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 爆発判定、演出の呼び出し、リセット処理を統括。</t>
-    </r>
-  </si>
-  <si>
-    <t>public:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Vector2 pos;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    virtual ~Entity() {}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    void move(Vector2 delta) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        pos.x += delta.x;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        pos.y += delta.y;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    }</t>
-  </si>
-  <si>
-    <t>};</t>
-  </si>
-  <si>
-    <t>class Block : public Entity {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    // ブロック特有の属性があればここに追加</t>
-  </si>
-  <si>
-    <t>enum class CellType {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Empty,      // 何もない</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Wall,       // 壁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Explosion,  // 爆発床</t>
-  </si>
-  <si>
-    <t>struct Vector2 {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int x, y;</t>
-  </si>
-  <si>
-    <t>列挙型と構造体</t>
-  </si>
-  <si>
-    <t>Entity クラス（プレイヤー・ブロックの親）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Stage クラス</t>
-  </si>
-  <si>
-    <t>class Stage {</t>
-  </si>
-  <si>
-    <t>private:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    CellType grid[9][9];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    std::vector&lt;Block&gt; blocks;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    // 指定した座標にあるセルの種類を返す</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    CellType getCellType(Vector2 p) const;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    // 指定した座標にブロックがあるか確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Block* getBlockAt(Vector2 p);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    // ブロックを移動させ、爆発床ならtrueを返す</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    bool moveBlock(Block&amp; block, Vector2 direction) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Vector2 nextPos = {block.pos.x + direction.x, block.pos.y + direction.y};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        // 壁チェック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (getCellType(nextPos) == CellType::Wall) return false;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        // 1メートル（1マス）移動</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        block.move(direction);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        // 爆発判定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        if (getCellType(nextPos) == CellType::Explosion) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            return true; // 爆発発生</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        return false;</t>
-  </si>
-  <si>
-    <t>ゲームのメインロジック（GameManager）</t>
-  </si>
-  <si>
-    <t>class GameManager {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Stage currentStage;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Player player;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    void onInput(Vector2 dir, bool isPush) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        // 1. 移動先の座標を計算</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        // 2. そこにブロックがあるか確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        // 3. 押す(isPush) or 引く のロジックを実行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        // 4. stage.moveBlock() を呼び出し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        // 5. 戻り値がtrueなら gameOver() を実行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    void gameOver() {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        // 演出再生</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        playExplosionEffect();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        // リセット</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        resetStage();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    void resetStage() {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        // 全てのブロックとプレイヤーを初期位置へ</t>
-  </si>
-  <si>
-    <r>
-      <t>自動スライドの表現</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 「1回押すと1メートル移動し、マスに納まったら止まる」という仕様は、内部データ（座標）を整数 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> で管理し、描画側（Update関数など）で現在の座標から目標の座標まで線形補間（Lerp）させてアニメーションさせるとスムーズに見えます。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>「引く」動作の追加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 通常の倉庫番は「押す」だけですが、今回は「引く」も含まれます。プレイヤーが移動したとき、移動前の位置にブロックがあった場合、そのブロックをプレイヤーと同じ方向へ移動させるロジックが必要です。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>爆発床の判定タイミング</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: ブロックが移動して、座標が更新された瞬間に </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Stage::getCellType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> で判定を行います。</t>
-    </r>
-  </si>
-  <si>
-    <t>class Entity {</t>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>スケジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン切り替え</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景、オブジェクトのモデル描画</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skyboxの実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト(爆発)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調整項目の精査</t>
+    <rPh sb="0" eb="2">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調整期間</t>
+    <rPh sb="0" eb="4">
+      <t>チョウセイキカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -651,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,19 +380,15 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,8 +425,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -775,11 +455,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -803,7 +496,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1086,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="18.75"/>
@@ -1621,419 +1324,568 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CB325F-5629-45F0-99F7-61A701F3E4BC}">
-  <dimension ref="B3:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37646C81-9C45-4B2A-86B9-619BCB3F1C8E}">
+  <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="37.625" customWidth="1"/>
+    <col min="4" max="29" width="3.125" customWidth="1"/>
+    <col min="30" max="30" width="26.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2">
-      <c r="B3" s="13" t="s">
+    <row r="1" spans="1:33" ht="25.5">
+      <c r="A1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="C3" s="13"/>
+      <c r="D3" s="14">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7">
+        <v>23</v>
+      </c>
+      <c r="K3" s="14">
+        <v>24</v>
+      </c>
+      <c r="L3" s="7">
+        <v>25</v>
+      </c>
+      <c r="M3" s="7">
+        <v>26</v>
+      </c>
+      <c r="N3" s="7">
+        <v>27</v>
+      </c>
+      <c r="O3" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="13" t="s">
+      <c r="P3" s="7">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="13" t="s">
+      <c r="R3" s="14">
+        <v>31</v>
+      </c>
+      <c r="S3" s="7">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7">
+        <v>2</v>
+      </c>
+      <c r="U3" s="7">
+        <v>3</v>
+      </c>
+      <c r="V3" s="7">
+        <v>4</v>
+      </c>
+      <c r="W3" s="7">
+        <v>5</v>
+      </c>
+      <c r="X3" s="7">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="C4" s="13"/>
+      <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="13" t="s">
+      <c r="E4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B0A397-5EC8-4826-BAB9-92A1B2E28802}">
-  <dimension ref="B2:E93"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" t="s">
+      <c r="G4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4" s="7"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="C5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="7"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="C6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="7"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="C7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="7"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="C8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="7"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="C9" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="7"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="C10" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="7"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="C11" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="7"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="C12" s="13"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="7"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="C13" s="13"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="7"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="C14" s="13"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="7"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="C15" s="13"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
